--- a/kleomedes/evidence.xlsx
+++ b/kleomedes/evidence.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t xml:space="preserve">TeamName</t>
   </si>
@@ -127,28 +127,25 @@
     <t xml:space="preserve">EE8C96C49FA38DC29EE94CB5DB67FA39D88DC1DA1378236DF9A80C9644B8C921</t>
   </si>
   <si>
-    <t xml:space="preserve">wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/kleoiris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uni-6</t>
+    <t xml:space="preserve">juno1krkyrnh8w22u23juvga0af8cc6lyw4tftv4x3zgy346sxxhgxjzspu5ee9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni-6</t>
   </si>
   <si>
     <t xml:space="preserve">E62B13A4B4E0F287ABC290084EA20847EA68C5084BA44B9A81A3D1431DD5A15C</t>
   </si>
   <si>
-    <t xml:space="preserve">nft-transfer/channel-3/kleoiris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uptick_7000-2</t>
+    <t xml:space="preserve">ibc/4ABA3A20151E22A1C14C5A4CCB117E8E66237CFEA600FA728022508522A9D17F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2</t>
   </si>
   <si>
     <t xml:space="preserve">2058A893BF8EA2601B6332D3C095009A4A763C1FF45977C8CB2980620026987D</t>
   </si>
   <si>
     <t xml:space="preserve">7255FB0C33AAB73E1956224726095EB011C049A278A509313567299961AA9A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel-3/kleoiris</t>
   </si>
   <si>
     <t xml:space="preserve">ibc class on chain</t>
@@ -179,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,6 +205,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -279,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +304,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,10 +496,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -533,10 +540,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +584,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +628,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -665,20 +672,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -719,20 +726,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -773,20 +780,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -827,20 +834,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -881,20 +888,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -935,20 +942,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1033,20 +1040,20 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1087,62 +1094,62 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1186,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1221,12 +1228,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1263,12 +1270,12 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1351,15 +1358,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="113.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1409,13 +1416,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="121.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1467,12 +1474,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="112.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1495,7 +1503,7 @@
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1524,13 +1532,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="121.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
   </cols>
@@ -1553,8 +1561,8 @@
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -1601,10 +1609,10 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1645,11 +1653,11 @@
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
